--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Gdf9-Acvr2a.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Gdf9-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Gdf9</t>
   </si>
   <si>
     <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7641413456774649</v>
+        <v>0.9029553333333333</v>
       </c>
       <c r="H2">
-        <v>0.7641413456774649</v>
+        <v>2.708866</v>
       </c>
       <c r="I2">
-        <v>0.364656473436349</v>
+        <v>0.2353208431348719</v>
       </c>
       <c r="J2">
-        <v>0.364656473436349</v>
+        <v>0.2353208431348719</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.812312868216</v>
+        <v>14.61878266666667</v>
       </c>
       <c r="N2">
-        <v>11.812312868216</v>
+        <v>43.856348</v>
       </c>
       <c r="O2">
-        <v>0.2382272312174724</v>
+        <v>0.2662829816142094</v>
       </c>
       <c r="P2">
-        <v>0.2382272312174724</v>
+        <v>0.2662829816142094</v>
       </c>
       <c r="Q2">
-        <v>9.02627665068181</v>
+        <v>13.20010777570756</v>
       </c>
       <c r="R2">
-        <v>9.02627665068181</v>
+        <v>118.800969981368</v>
       </c>
       <c r="S2">
-        <v>0.08687110201226921</v>
+        <v>0.06266193574592337</v>
       </c>
       <c r="T2">
-        <v>0.08687110201226921</v>
+        <v>0.06266193574592337</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7641413456774649</v>
+        <v>0.9029553333333333</v>
       </c>
       <c r="H3">
-        <v>0.7641413456774649</v>
+        <v>2.708866</v>
       </c>
       <c r="I3">
-        <v>0.364656473436349</v>
+        <v>0.2353208431348719</v>
       </c>
       <c r="J3">
-        <v>0.364656473436349</v>
+        <v>0.2353208431348719</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.7489416814728</v>
+        <v>27.084169</v>
       </c>
       <c r="N3">
-        <v>26.7489416814728</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O3">
-        <v>0.5394647420761477</v>
+        <v>0.4933415757187404</v>
       </c>
       <c r="P3">
-        <v>0.5394647420761477</v>
+        <v>0.4933415757187404</v>
       </c>
       <c r="Q3">
-        <v>20.43997229192866</v>
+        <v>24.45579484745134</v>
       </c>
       <c r="R3">
-        <v>20.43997229192866</v>
+        <v>220.102153627062</v>
       </c>
       <c r="S3">
-        <v>0.1967193103887376</v>
+        <v>0.1160935555516202</v>
       </c>
       <c r="T3">
-        <v>0.1967193103887376</v>
+        <v>0.1160935555516203</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7641413456774649</v>
+        <v>0.9029553333333333</v>
       </c>
       <c r="H4">
-        <v>0.7641413456774649</v>
+        <v>2.708866</v>
       </c>
       <c r="I4">
-        <v>0.364656473436349</v>
+        <v>0.2353208431348719</v>
       </c>
       <c r="J4">
-        <v>0.364656473436349</v>
+        <v>0.2353208431348719</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.0229714342534</v>
+        <v>13.19647366666667</v>
       </c>
       <c r="N4">
-        <v>11.0229714342534</v>
+        <v>39.589421</v>
       </c>
       <c r="O4">
-        <v>0.2223080267063799</v>
+        <v>0.2403754426670501</v>
       </c>
       <c r="P4">
-        <v>0.2223080267063799</v>
+        <v>0.2403754426670501</v>
       </c>
       <c r="Q4">
-        <v>8.423108225134648</v>
+        <v>11.91582627850956</v>
       </c>
       <c r="R4">
-        <v>8.423108225134648</v>
+        <v>107.242436506586</v>
       </c>
       <c r="S4">
-        <v>0.0810660610353422</v>
+        <v>0.0565653518373283</v>
       </c>
       <c r="T4">
-        <v>0.0810660610353422</v>
+        <v>0.0565653518373283</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.33136881619231</v>
+        <v>1.446898</v>
       </c>
       <c r="H5">
-        <v>1.33136881619231</v>
+        <v>4.340694</v>
       </c>
       <c r="I5">
-        <v>0.6353435265636511</v>
+        <v>0.3770787376970584</v>
       </c>
       <c r="J5">
-        <v>0.6353435265636511</v>
+        <v>0.3770787376970584</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.812312868216</v>
+        <v>14.61878266666667</v>
       </c>
       <c r="N5">
-        <v>11.812312868216</v>
+        <v>43.856348</v>
       </c>
       <c r="O5">
-        <v>0.2382272312174724</v>
+        <v>0.2662829816142094</v>
       </c>
       <c r="P5">
-        <v>0.2382272312174724</v>
+        <v>0.2662829816142094</v>
       </c>
       <c r="Q5">
-        <v>15.72654499984993</v>
+        <v>21.15188740283467</v>
       </c>
       <c r="R5">
-        <v>15.72654499984993</v>
+        <v>190.366986625512</v>
       </c>
       <c r="S5">
-        <v>0.1513561292052032</v>
+        <v>0.1004096505772951</v>
       </c>
       <c r="T5">
-        <v>0.1513561292052032</v>
+        <v>0.1004096505772951</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.33136881619231</v>
+        <v>1.446898</v>
       </c>
       <c r="H6">
-        <v>1.33136881619231</v>
+        <v>4.340694</v>
       </c>
       <c r="I6">
-        <v>0.6353435265636511</v>
+        <v>0.3770787376970584</v>
       </c>
       <c r="J6">
-        <v>0.6353435265636511</v>
+        <v>0.3770787376970584</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.7489416814728</v>
+        <v>27.084169</v>
       </c>
       <c r="N6">
-        <v>26.7489416814728</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O6">
-        <v>0.5394647420761477</v>
+        <v>0.4933415757187404</v>
       </c>
       <c r="P6">
-        <v>0.5394647420761477</v>
+        <v>0.4933415757187404</v>
       </c>
       <c r="Q6">
-        <v>35.61270682085958</v>
+        <v>39.18802995776201</v>
       </c>
       <c r="R6">
-        <v>35.61270682085958</v>
+        <v>352.6922696198581</v>
       </c>
       <c r="S6">
-        <v>0.3427454316874101</v>
+        <v>0.1860286186255004</v>
       </c>
       <c r="T6">
-        <v>0.3427454316874101</v>
+        <v>0.1860286186255004</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.446898</v>
+      </c>
+      <c r="H7">
+        <v>4.340694</v>
+      </c>
+      <c r="I7">
+        <v>0.3770787376970584</v>
+      </c>
+      <c r="J7">
+        <v>0.3770787376970584</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>13.19647366666667</v>
+      </c>
+      <c r="N7">
+        <v>39.589421</v>
+      </c>
+      <c r="O7">
+        <v>0.2403754426670501</v>
+      </c>
+      <c r="P7">
+        <v>0.2403754426670501</v>
+      </c>
+      <c r="Q7">
+        <v>19.09395135535267</v>
+      </c>
+      <c r="R7">
+        <v>171.845562198174</v>
+      </c>
+      <c r="S7">
+        <v>0.0906404684942629</v>
+      </c>
+      <c r="T7">
+        <v>0.09064046849426288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.33136881619231</v>
-      </c>
-      <c r="H7">
-        <v>1.33136881619231</v>
-      </c>
-      <c r="I7">
-        <v>0.6353435265636511</v>
-      </c>
-      <c r="J7">
-        <v>0.6353435265636511</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>11.0229714342534</v>
-      </c>
-      <c r="N7">
-        <v>11.0229714342534</v>
-      </c>
-      <c r="O7">
-        <v>0.2223080267063799</v>
-      </c>
-      <c r="P7">
-        <v>0.2223080267063799</v>
-      </c>
-      <c r="Q7">
-        <v>14.6756404293436</v>
-      </c>
-      <c r="R7">
-        <v>14.6756404293436</v>
-      </c>
-      <c r="S7">
-        <v>0.1412419656710378</v>
-      </c>
-      <c r="T7">
-        <v>0.1412419656710378</v>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>1.487271</v>
+      </c>
+      <c r="H8">
+        <v>4.461812999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.3876004191680696</v>
+      </c>
+      <c r="J8">
+        <v>0.3876004191680697</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>14.61878266666667</v>
+      </c>
+      <c r="N8">
+        <v>43.856348</v>
+      </c>
+      <c r="O8">
+        <v>0.2662829816142094</v>
+      </c>
+      <c r="P8">
+        <v>0.2662829816142094</v>
+      </c>
+      <c r="Q8">
+        <v>21.74209151543599</v>
+      </c>
+      <c r="R8">
+        <v>195.678823638924</v>
+      </c>
+      <c r="S8">
+        <v>0.103211395290991</v>
+      </c>
+      <c r="T8">
+        <v>0.103211395290991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>1.487271</v>
+      </c>
+      <c r="H9">
+        <v>4.461812999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.3876004191680696</v>
+      </c>
+      <c r="J9">
+        <v>0.3876004191680697</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>27.084169</v>
+      </c>
+      <c r="N9">
+        <v>81.25250700000001</v>
+      </c>
+      <c r="O9">
+        <v>0.4933415757187404</v>
+      </c>
+      <c r="P9">
+        <v>0.4933415757187404</v>
+      </c>
+      <c r="Q9">
+        <v>40.281499112799</v>
+      </c>
+      <c r="R9">
+        <v>362.533492015191</v>
+      </c>
+      <c r="S9">
+        <v>0.1912194015416197</v>
+      </c>
+      <c r="T9">
+        <v>0.1912194015416198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>1.487271</v>
+      </c>
+      <c r="H10">
+        <v>4.461812999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.3876004191680696</v>
+      </c>
+      <c r="J10">
+        <v>0.3876004191680697</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.19647366666667</v>
+      </c>
+      <c r="N10">
+        <v>39.589421</v>
+      </c>
+      <c r="O10">
+        <v>0.2403754426670501</v>
+      </c>
+      <c r="P10">
+        <v>0.2403754426670501</v>
+      </c>
+      <c r="Q10">
+        <v>19.626732586697</v>
+      </c>
+      <c r="R10">
+        <v>176.640593280273</v>
+      </c>
+      <c r="S10">
+        <v>0.09316962233545892</v>
+      </c>
+      <c r="T10">
+        <v>0.09316962233545893</v>
       </c>
     </row>
   </sheetData>
